--- a/notebooks/POGZ/input/POGZ_WHSUS_individuals.xlsx
+++ b/notebooks/POGZ/input/POGZ_WHSUS_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/POGZ/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E76F890-6E82-7444-A6B5-85AA1B09AD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D81F65-0866-F248-87DC-970221533546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="500" windowWidth="34000" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5180" yWindow="500" windowWidth="43560" windowHeight="21660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5961" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5961" uniqueCount="709">
   <si>
     <t>PMID</t>
   </si>
@@ -1047,9 +1047,6 @@
   </si>
   <si>
     <t>P16Y</t>
-  </si>
-  <si>
-    <t>P15ys</t>
   </si>
   <si>
     <t>P21Y</t>
@@ -2240,7 +2237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2250,7 +2247,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2558,8 +2554,8 @@
   <dimension ref="A1:DK123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4218,7 +4214,7 @@
       <c r="DD5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="DE5" s="5" t="s">
+      <c r="DE5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="DF5" s="1" t="s">
@@ -7481,7 +7477,7 @@
         <v>283</v>
       </c>
       <c r="D16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E16" t="s">
         <v>54</v>
@@ -7499,13 +7495,13 @@
         <v>58</v>
       </c>
       <c r="J16" t="s">
+        <v>341</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
         <v>342</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" t="s">
-        <v>343</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>62</v>
@@ -7685,7 +7681,7 @@
         <v>286</v>
       </c>
       <c r="D17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E17" t="s">
         <v>54</v>
@@ -7703,13 +7699,13 @@
         <v>58</v>
       </c>
       <c r="J17" t="s">
+        <v>343</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" t="s">
         <v>344</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" t="s">
-        <v>345</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>62</v>
@@ -7874,7 +7870,7 @@
     </row>
     <row r="18" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
         <v>287</v>
@@ -7883,7 +7879,7 @@
         <v>288</v>
       </c>
       <c r="D18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
@@ -7901,13 +7897,13 @@
         <v>58</v>
       </c>
       <c r="J18" t="s">
+        <v>345</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" t="s">
         <v>346</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" t="s">
-        <v>347</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>62</v>
@@ -8076,7 +8072,7 @@
     </row>
     <row r="19" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B19" t="s">
         <v>287</v>
@@ -8085,7 +8081,7 @@
         <v>289</v>
       </c>
       <c r="D19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
@@ -8103,13 +8099,13 @@
         <v>58</v>
       </c>
       <c r="J19" t="s">
+        <v>347</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" t="s">
         <v>348</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" t="s">
-        <v>349</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>62</v>
@@ -8304,7 +8300,7 @@
     </row>
     <row r="20" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B20" t="s">
         <v>287</v>
@@ -8313,7 +8309,7 @@
         <v>290</v>
       </c>
       <c r="D20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E20" t="s">
         <v>54</v>
@@ -8331,13 +8327,13 @@
         <v>58</v>
       </c>
       <c r="J20" t="s">
+        <v>349</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" t="s">
         <v>350</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" t="s">
-        <v>351</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>62</v>
@@ -8497,7 +8493,7 @@
     </row>
     <row r="21" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B21" t="s">
         <v>287</v>
@@ -8506,7 +8502,7 @@
         <v>291</v>
       </c>
       <c r="D21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E21" t="s">
         <v>54</v>
@@ -8524,13 +8520,13 @@
         <v>58</v>
       </c>
       <c r="J21" t="s">
+        <v>351</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" t="s">
         <v>352</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" t="s">
-        <v>353</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>62</v>
@@ -8710,7 +8706,7 @@
     </row>
     <row r="22" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B22" t="s">
         <v>287</v>
@@ -8719,7 +8715,7 @@
         <v>292</v>
       </c>
       <c r="D22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E22" t="s">
         <v>54</v>
@@ -8737,13 +8733,13 @@
         <v>58</v>
       </c>
       <c r="J22" t="s">
+        <v>353</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" t="s">
         <v>354</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" t="s">
-        <v>355</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>62</v>
@@ -8916,7 +8912,7 @@
     </row>
     <row r="23" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B23" t="s">
         <v>293</v>
@@ -8925,7 +8921,7 @@
         <v>294</v>
       </c>
       <c r="D23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E23" t="s">
         <v>54</v>
@@ -8943,13 +8939,13 @@
         <v>58</v>
       </c>
       <c r="J23" t="s">
+        <v>355</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" t="s">
         <v>356</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" t="s">
-        <v>357</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>62</v>
@@ -9157,7 +9153,7 @@
     </row>
     <row r="24" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B24" t="s">
         <v>295</v>
@@ -9166,7 +9162,7 @@
         <v>296</v>
       </c>
       <c r="D24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E24" t="s">
         <v>54</v>
@@ -9184,13 +9180,13 @@
         <v>58</v>
       </c>
       <c r="J24" t="s">
+        <v>357</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" t="s">
         <v>358</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" t="s">
-        <v>359</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>62</v>
@@ -9338,7 +9334,7 @@
     </row>
     <row r="25" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B25" t="s">
         <v>297</v>
@@ -9347,7 +9343,7 @@
         <v>283</v>
       </c>
       <c r="D25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E25" t="s">
         <v>54</v>
@@ -9365,13 +9361,13 @@
         <v>58</v>
       </c>
       <c r="J25" t="s">
+        <v>359</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" t="s">
         <v>360</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" t="s">
-        <v>361</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>62</v>
@@ -9562,7 +9558,7 @@
     </row>
     <row r="26" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B26" t="s">
         <v>298</v>
@@ -9571,7 +9567,7 @@
         <v>283</v>
       </c>
       <c r="D26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E26" t="s">
         <v>54</v>
@@ -9589,13 +9585,13 @@
         <v>58</v>
       </c>
       <c r="J26" t="s">
+        <v>361</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" t="s">
         <v>362</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" t="s">
-        <v>363</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>62</v>
@@ -9771,7 +9767,7 @@
     </row>
     <row r="27" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B27" t="s">
         <v>299</v>
@@ -9780,7 +9776,7 @@
         <v>286</v>
       </c>
       <c r="D27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E27" t="s">
         <v>54</v>
@@ -9798,13 +9794,13 @@
         <v>58</v>
       </c>
       <c r="J27" t="s">
+        <v>363</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" t="s">
         <v>364</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" t="s">
-        <v>365</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>62</v>
@@ -9977,7 +9973,7 @@
     </row>
     <row r="28" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B28" t="s">
         <v>300</v>
@@ -9986,7 +9982,7 @@
         <v>301</v>
       </c>
       <c r="D28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E28" t="s">
         <v>54</v>
@@ -10004,13 +10000,13 @@
         <v>58</v>
       </c>
       <c r="J28" t="s">
+        <v>365</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" t="s">
         <v>366</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28" t="s">
-        <v>367</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>62</v>
@@ -10142,7 +10138,7 @@
     </row>
     <row r="29" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B29" t="s">
         <v>302</v>
@@ -10151,7 +10147,7 @@
         <v>303</v>
       </c>
       <c r="D29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E29" t="s">
         <v>54</v>
@@ -10169,13 +10165,13 @@
         <v>58</v>
       </c>
       <c r="J29" t="s">
+        <v>367</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" t="s">
         <v>368</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" t="s">
-        <v>369</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>62</v>
@@ -10322,7 +10318,7 @@
     </row>
     <row r="30" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B30" t="s">
         <v>304</v>
@@ -10331,7 +10327,7 @@
         <v>283</v>
       </c>
       <c r="D30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E30" t="s">
         <v>54</v>
@@ -10349,13 +10345,13 @@
         <v>58</v>
       </c>
       <c r="J30" t="s">
+        <v>369</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" t="s">
         <v>370</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L30" t="s">
-        <v>371</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>62</v>
@@ -10546,7 +10542,7 @@
     </row>
     <row r="31" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B31" t="s">
         <v>305</v>
@@ -10555,7 +10551,7 @@
         <v>283</v>
       </c>
       <c r="D31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
@@ -10573,13 +10569,13 @@
         <v>58</v>
       </c>
       <c r="J31" t="s">
+        <v>371</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31" t="s">
         <v>372</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L31" t="s">
-        <v>373</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>62</v>
@@ -10768,7 +10764,7 @@
     </row>
     <row r="32" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B32" t="s">
         <v>306</v>
@@ -10777,7 +10773,7 @@
         <v>307</v>
       </c>
       <c r="D32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E32" t="s">
         <v>54</v>
@@ -10795,13 +10791,13 @@
         <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>62</v>
@@ -10988,7 +10984,7 @@
     </row>
     <row r="33" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B33" t="s">
         <v>306</v>
@@ -10997,7 +10993,7 @@
         <v>308</v>
       </c>
       <c r="D33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E33" t="s">
         <v>54</v>
@@ -11015,13 +11011,13 @@
         <v>58</v>
       </c>
       <c r="J33" t="s">
+        <v>374</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" t="s">
         <v>375</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L33" t="s">
-        <v>376</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>62</v>
@@ -11194,7 +11190,7 @@
     </row>
     <row r="34" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B34" t="s">
         <v>306</v>
@@ -11203,7 +11199,7 @@
         <v>309</v>
       </c>
       <c r="D34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E34" t="s">
         <v>54</v>
@@ -11221,13 +11217,13 @@
         <v>58</v>
       </c>
       <c r="J34" t="s">
+        <v>374</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" t="s">
         <v>375</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L34" t="s">
-        <v>376</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>62</v>
@@ -11394,7 +11390,7 @@
     </row>
     <row r="35" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B35" t="s">
         <v>306</v>
@@ -11403,7 +11399,7 @@
         <v>310</v>
       </c>
       <c r="D35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E35" t="s">
         <v>54</v>
@@ -11421,13 +11417,13 @@
         <v>58</v>
       </c>
       <c r="J35" t="s">
+        <v>376</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" t="s">
         <v>377</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L35" t="s">
-        <v>378</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>62</v>
@@ -11594,7 +11590,7 @@
     </row>
     <row r="36" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B36" t="s">
         <v>306</v>
@@ -11603,7 +11599,7 @@
         <v>311</v>
       </c>
       <c r="D36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E36" t="s">
         <v>54</v>
@@ -11621,13 +11617,13 @@
         <v>58</v>
       </c>
       <c r="J36" t="s">
+        <v>378</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L36" t="s">
         <v>379</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" t="s">
-        <v>380</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>62</v>
@@ -11801,7 +11797,7 @@
     </row>
     <row r="37" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B37" t="s">
         <v>306</v>
@@ -11810,7 +11806,7 @@
         <v>312</v>
       </c>
       <c r="D37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E37" t="s">
         <v>54</v>
@@ -11828,13 +11824,13 @@
         <v>58</v>
       </c>
       <c r="J37" t="s">
+        <v>380</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L37" t="s">
         <v>381</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L37" t="s">
-        <v>382</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>62</v>
@@ -11991,7 +11987,7 @@
     </row>
     <row r="38" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B38" t="s">
         <v>306</v>
@@ -12000,7 +11996,7 @@
         <v>313</v>
       </c>
       <c r="D38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E38" t="s">
         <v>54</v>
@@ -12018,13 +12014,13 @@
         <v>58</v>
       </c>
       <c r="J38" t="s">
+        <v>382</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L38" t="s">
         <v>383</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L38" t="s">
-        <v>384</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>62</v>
@@ -12198,7 +12194,7 @@
     </row>
     <row r="39" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B39" t="s">
         <v>306</v>
@@ -12207,7 +12203,7 @@
         <v>314</v>
       </c>
       <c r="D39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E39" t="s">
         <v>54</v>
@@ -12225,13 +12221,13 @@
         <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>62</v>
@@ -12413,7 +12409,7 @@
     </row>
     <row r="40" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B40" t="s">
         <v>306</v>
@@ -12422,7 +12418,7 @@
         <v>315</v>
       </c>
       <c r="D40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E40" t="s">
         <v>54</v>
@@ -12440,13 +12436,13 @@
         <v>58</v>
       </c>
       <c r="J40" t="s">
+        <v>385</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L40" t="s">
         <v>386</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L40" t="s">
-        <v>387</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>62</v>
@@ -12612,7 +12608,7 @@
     </row>
     <row r="41" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B41" t="s">
         <v>306</v>
@@ -12621,7 +12617,7 @@
         <v>316</v>
       </c>
       <c r="D41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E41" t="s">
         <v>54</v>
@@ -12639,13 +12635,13 @@
         <v>58</v>
       </c>
       <c r="J41" t="s">
+        <v>387</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L41" t="s">
         <v>388</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L41" t="s">
-        <v>389</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>62</v>
@@ -12808,7 +12804,7 @@
     </row>
     <row r="42" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s">
         <v>306</v>
@@ -12817,7 +12813,7 @@
         <v>317</v>
       </c>
       <c r="D42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E42" t="s">
         <v>54</v>
@@ -12835,13 +12831,13 @@
         <v>58</v>
       </c>
       <c r="J42" t="s">
+        <v>389</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L42" t="s">
         <v>390</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L42" t="s">
-        <v>391</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>62</v>
@@ -13005,7 +13001,7 @@
     </row>
     <row r="43" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B43" t="s">
         <v>306</v>
@@ -13014,7 +13010,7 @@
         <v>318</v>
       </c>
       <c r="D43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E43" t="s">
         <v>54</v>
@@ -13032,13 +13028,13 @@
         <v>58</v>
       </c>
       <c r="J43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43" t="s">
         <v>392</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L43" t="s">
-        <v>393</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>62</v>
@@ -13195,7 +13191,7 @@
     </row>
     <row r="44" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B44" t="s">
         <v>306</v>
@@ -13204,7 +13200,7 @@
         <v>319</v>
       </c>
       <c r="D44" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E44" t="s">
         <v>54</v>
@@ -13222,19 +13218,19 @@
         <v>58</v>
       </c>
       <c r="J44" t="s">
+        <v>393</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L44" t="s">
         <v>394</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L44" t="s">
-        <v>395</v>
-      </c>
       <c r="M44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N44" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="O44" t="s">
         <v>127</v>
@@ -13392,7 +13388,7 @@
     </row>
     <row r="45" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B45" t="s">
         <v>306</v>
@@ -13401,7 +13397,7 @@
         <v>320</v>
       </c>
       <c r="D45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E45" t="s">
         <v>54</v>
@@ -13419,13 +13415,13 @@
         <v>58</v>
       </c>
       <c r="J45" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" t="s">
         <v>342</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L45" t="s">
-        <v>343</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>62</v>
@@ -13574,7 +13570,7 @@
     </row>
     <row r="46" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B46" t="s">
         <v>306</v>
@@ -13583,7 +13579,7 @@
         <v>321</v>
       </c>
       <c r="D46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E46" t="s">
         <v>54</v>
@@ -13601,19 +13597,19 @@
         <v>58</v>
       </c>
       <c r="J46" t="s">
+        <v>395</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" t="s">
         <v>396</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L46" t="s">
-        <v>397</v>
-      </c>
       <c r="M46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O46" t="s">
         <v>127</v>
@@ -13754,7 +13750,7 @@
     </row>
     <row r="47" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B47" t="s">
         <v>306</v>
@@ -13763,7 +13759,7 @@
         <v>322</v>
       </c>
       <c r="D47" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E47" t="s">
         <v>54</v>
@@ -13781,13 +13777,13 @@
         <v>58</v>
       </c>
       <c r="J47" t="s">
+        <v>395</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L47" t="s">
         <v>396</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L47" t="s">
-        <v>397</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>62</v>
@@ -13947,7 +13943,7 @@
     </row>
     <row r="48" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s">
         <v>306</v>
@@ -13956,7 +13952,7 @@
         <v>323</v>
       </c>
       <c r="D48" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E48" t="s">
         <v>54</v>
@@ -13974,13 +13970,13 @@
         <v>58</v>
       </c>
       <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L48" t="s">
         <v>398</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L48" t="s">
-        <v>399</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>62</v>
@@ -14138,7 +14134,7 @@
     </row>
     <row r="49" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s">
         <v>306</v>
@@ -14147,7 +14143,7 @@
         <v>324</v>
       </c>
       <c r="D49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E49" t="s">
         <v>54</v>
@@ -14165,19 +14161,19 @@
         <v>58</v>
       </c>
       <c r="J49" t="s">
+        <v>399</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" t="s">
         <v>400</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L49" t="s">
-        <v>401</v>
-      </c>
       <c r="M49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O49" t="s">
         <v>127</v>
@@ -14351,7 +14347,7 @@
     </row>
     <row r="50" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s">
         <v>306</v>
@@ -14360,7 +14356,7 @@
         <v>325</v>
       </c>
       <c r="D50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E50" t="s">
         <v>54</v>
@@ -14378,19 +14374,19 @@
         <v>58</v>
       </c>
       <c r="J50" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L50" t="s">
         <v>402</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L50" t="s">
-        <v>403</v>
-      </c>
       <c r="M50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O50" t="s">
         <v>127</v>
@@ -14533,7 +14529,7 @@
     </row>
     <row r="51" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B51" t="s">
         <v>326</v>
@@ -14542,7 +14538,7 @@
         <v>303</v>
       </c>
       <c r="D51" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E51" t="s">
         <v>54</v>
@@ -14560,13 +14556,13 @@
         <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>62</v>
@@ -14880,16 +14876,16 @@
     </row>
     <row r="52" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>307</v>
       </c>
       <c r="D52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E52" t="s">
         <v>54</v>
@@ -14907,13 +14903,13 @@
         <v>58</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>62</v>
@@ -15012,16 +15008,16 @@
     </row>
     <row r="53" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>308</v>
       </c>
       <c r="D53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E53" t="s">
         <v>54</v>
@@ -15039,13 +15035,13 @@
         <v>58</v>
       </c>
       <c r="J53" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>62</v>
@@ -15136,16 +15132,16 @@
     </row>
     <row r="54" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>309</v>
       </c>
       <c r="D54" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E54" t="s">
         <v>54</v>
@@ -15163,13 +15159,13 @@
         <v>58</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>62</v>
@@ -15262,16 +15258,16 @@
     </row>
     <row r="55" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>310</v>
       </c>
       <c r="D55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E55" t="s">
         <v>54</v>
@@ -15289,13 +15285,13 @@
         <v>58</v>
       </c>
       <c r="J55" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>62</v>
@@ -15386,16 +15382,16 @@
     </row>
     <row r="56" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D56" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
@@ -15413,13 +15409,13 @@
         <v>58</v>
       </c>
       <c r="J56" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>62</v>
@@ -15512,16 +15508,16 @@
     </row>
     <row r="57" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D57" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E57" t="s">
         <v>54</v>
@@ -15539,7 +15535,7 @@
         <v>58</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>62</v>
@@ -15640,16 +15636,16 @@
     </row>
     <row r="58" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>313</v>
       </c>
       <c r="D58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E58" t="s">
         <v>54</v>
@@ -15667,19 +15663,19 @@
         <v>58</v>
       </c>
       <c r="J58" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="M58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O58" t="s">
         <v>127</v>
@@ -15766,16 +15762,16 @@
     </row>
     <row r="59" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="D59" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E59" t="s">
         <v>54</v>
@@ -15793,13 +15789,13 @@
         <v>58</v>
       </c>
       <c r="J59" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>62</v>
@@ -15884,16 +15880,16 @@
     </row>
     <row r="60" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="D60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E60" t="s">
         <v>54</v>
@@ -15911,13 +15907,13 @@
         <v>58</v>
       </c>
       <c r="J60" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>62</v>
@@ -16010,16 +16006,16 @@
     </row>
     <row r="61" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D61" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E61" t="s">
         <v>54</v>
@@ -16037,19 +16033,19 @@
         <v>58</v>
       </c>
       <c r="J61" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="M61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O61" t="s">
         <v>127</v>
@@ -16136,16 +16132,16 @@
     </row>
     <row r="62" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E62" t="s">
         <v>54</v>
@@ -16163,13 +16159,13 @@
         <v>58</v>
       </c>
       <c r="J62" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>62</v>
@@ -16260,16 +16256,16 @@
     </row>
     <row r="63" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D63" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E63" t="s">
         <v>54</v>
@@ -16287,19 +16283,19 @@
         <v>58</v>
       </c>
       <c r="J63" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="M63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O63" t="s">
         <v>127</v>
@@ -16380,16 +16376,16 @@
     </row>
     <row r="64" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E64" t="s">
         <v>54</v>
@@ -16407,13 +16403,13 @@
         <v>58</v>
       </c>
       <c r="J64" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>62</v>
@@ -16504,16 +16500,16 @@
     </row>
     <row r="65" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D65" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E65" t="s">
         <v>54</v>
@@ -16531,13 +16527,13 @@
         <v>58</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>62</v>
@@ -16628,16 +16624,16 @@
     </row>
     <row r="66" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D66" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E66" t="s">
         <v>54</v>
@@ -16655,13 +16651,13 @@
         <v>58</v>
       </c>
       <c r="J66" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>62</v>
@@ -16748,16 +16744,16 @@
     </row>
     <row r="67" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D67" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E67" t="s">
         <v>54</v>
@@ -16775,19 +16771,19 @@
         <v>58</v>
       </c>
       <c r="J67" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>634</v>
-      </c>
       <c r="M67" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O67" t="s">
         <v>127</v>
@@ -16870,16 +16866,16 @@
     </row>
     <row r="68" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D68" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E68" t="s">
         <v>54</v>
@@ -16897,13 +16893,13 @@
         <v>58</v>
       </c>
       <c r="J68" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>62</v>
@@ -16996,16 +16992,16 @@
     </row>
     <row r="69" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D69" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E69" t="s">
         <v>54</v>
@@ -17023,13 +17019,13 @@
         <v>58</v>
       </c>
       <c r="J69" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>62</v>
@@ -17118,16 +17114,16 @@
     </row>
     <row r="70" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D70" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E70" t="s">
         <v>54</v>
@@ -17145,13 +17141,13 @@
         <v>58</v>
       </c>
       <c r="J70" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>62</v>
@@ -17243,16 +17239,16 @@
     </row>
     <row r="71" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D71" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E71" t="s">
         <v>54</v>
@@ -17270,13 +17266,13 @@
         <v>58</v>
       </c>
       <c r="J71" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>62</v>
@@ -17362,16 +17358,16 @@
     </row>
     <row r="72" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D72" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E72" t="s">
         <v>54</v>
@@ -17389,13 +17385,13 @@
         <v>58</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>62</v>
@@ -17485,16 +17481,16 @@
     </row>
     <row r="73" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D73" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E73" t="s">
         <v>54</v>
@@ -17512,13 +17508,13 @@
         <v>58</v>
       </c>
       <c r="J73" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>62</v>
@@ -17600,16 +17596,16 @@
     </row>
     <row r="74" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D74" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E74" t="s">
         <v>54</v>
@@ -17627,19 +17623,19 @@
         <v>58</v>
       </c>
       <c r="J74" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>641</v>
-      </c>
       <c r="M74" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O74" t="s">
         <v>127</v>
@@ -17717,16 +17713,16 @@
     </row>
     <row r="75" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D75" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E75" t="s">
         <v>54</v>
@@ -17744,19 +17740,19 @@
         <v>58</v>
       </c>
       <c r="J75" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="M75" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O75" t="s">
         <v>127</v>
@@ -17838,16 +17834,16 @@
     </row>
     <row r="76" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E76" t="s">
         <v>54</v>
@@ -17865,13 +17861,13 @@
         <v>58</v>
       </c>
       <c r="J76" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>62</v>
@@ -17952,16 +17948,16 @@
     </row>
     <row r="77" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D77" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E77" t="s">
         <v>54</v>
@@ -17979,19 +17975,19 @@
         <v>58</v>
       </c>
       <c r="J77" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="M77" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O77" t="s">
         <v>127</v>
@@ -18070,16 +18066,16 @@
     </row>
     <row r="78" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D78" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E78" t="s">
         <v>54</v>
@@ -18097,19 +18093,19 @@
         <v>58</v>
       </c>
       <c r="J78" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="M78" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O78" t="s">
         <v>127</v>
@@ -18184,16 +18180,16 @@
     </row>
     <row r="79" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D79" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E79" t="s">
         <v>54</v>
@@ -18211,13 +18207,13 @@
         <v>58</v>
       </c>
       <c r="J79" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>62</v>
@@ -18306,16 +18302,16 @@
     </row>
     <row r="80" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D80" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E80" t="s">
         <v>54</v>
@@ -18333,19 +18329,19 @@
         <v>58</v>
       </c>
       <c r="J80" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="M80" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O80" t="s">
         <v>127</v>
@@ -18424,16 +18420,16 @@
     </row>
     <row r="81" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E81" t="s">
         <v>54</v>
@@ -18451,19 +18447,19 @@
         <v>58</v>
       </c>
       <c r="J81" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>653</v>
-      </c>
       <c r="M81" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O81" t="s">
         <v>127</v>
@@ -18538,16 +18534,16 @@
     </row>
     <row r="82" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D82" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E82" t="s">
         <v>54</v>
@@ -18565,13 +18561,13 @@
         <v>58</v>
       </c>
       <c r="J82" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>62</v>
@@ -18652,16 +18648,16 @@
     </row>
     <row r="83" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D83" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E83" t="s">
         <v>54</v>
@@ -18679,13 +18675,13 @@
         <v>58</v>
       </c>
       <c r="J83" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>62</v>
@@ -18772,16 +18768,16 @@
     </row>
     <row r="84" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D84" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E84" t="s">
         <v>54</v>
@@ -18799,19 +18795,19 @@
         <v>58</v>
       </c>
       <c r="J84" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="M84" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O84" t="s">
         <v>127</v>
@@ -18892,16 +18888,16 @@
     </row>
     <row r="85" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="D85" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E85" t="s">
         <v>54</v>
@@ -18919,13 +18915,13 @@
         <v>58</v>
       </c>
       <c r="J85" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L85" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>62</v>
@@ -19008,16 +19004,16 @@
     </row>
     <row r="86" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D86" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E86" t="s">
         <v>54</v>
@@ -19035,19 +19031,19 @@
         <v>58</v>
       </c>
       <c r="J86" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="M86" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O86" t="s">
         <v>127</v>
@@ -19120,16 +19116,16 @@
     </row>
     <row r="87" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D87" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E87" t="s">
         <v>54</v>
@@ -19147,13 +19143,13 @@
         <v>58</v>
       </c>
       <c r="J87" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>186</v>
@@ -19238,16 +19234,16 @@
     </row>
     <row r="88" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D88" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E88" t="s">
         <v>54</v>
@@ -19265,19 +19261,19 @@
         <v>58</v>
       </c>
       <c r="J88" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="M88" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O88" t="s">
         <v>127</v>
@@ -19358,16 +19354,16 @@
     </row>
     <row r="89" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D89" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E89" t="s">
         <v>54</v>
@@ -19385,13 +19381,13 @@
         <v>58</v>
       </c>
       <c r="J89" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L89" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>186</v>
@@ -19472,16 +19468,16 @@
     </row>
     <row r="90" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D90" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E90" t="s">
         <v>54</v>
@@ -19499,19 +19495,19 @@
         <v>58</v>
       </c>
       <c r="J90" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O90" t="s">
         <v>127</v>
@@ -19590,16 +19586,16 @@
     </row>
     <row r="91" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D91" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E91" t="s">
         <v>54</v>
@@ -19617,19 +19613,19 @@
         <v>58</v>
       </c>
       <c r="J91" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O91" t="s">
         <v>127</v>
@@ -19708,16 +19704,16 @@
     </row>
     <row r="92" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D92" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E92" t="s">
         <v>54</v>
@@ -19735,13 +19731,13 @@
         <v>58</v>
       </c>
       <c r="J92" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>62</v>
@@ -19820,16 +19816,16 @@
     </row>
     <row r="93" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D93" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E93" t="s">
         <v>54</v>
@@ -19847,13 +19843,13 @@
         <v>58</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>62</v>
@@ -19932,16 +19928,16 @@
     </row>
     <row r="94" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D94" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E94" t="s">
         <v>54</v>
@@ -19959,13 +19955,13 @@
         <v>58</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>62</v>
@@ -20048,16 +20044,16 @@
     </row>
     <row r="95" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D95" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E95" t="s">
         <v>54</v>
@@ -20075,7 +20071,7 @@
         <v>58</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>62</v>
@@ -20160,16 +20156,16 @@
     </row>
     <row r="96" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D96" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E96" t="s">
         <v>54</v>
@@ -20187,13 +20183,13 @@
         <v>58</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>186</v>
@@ -20274,16 +20270,16 @@
     </row>
     <row r="97" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D97" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E97" t="s">
         <v>54</v>
@@ -20301,19 +20297,19 @@
         <v>58</v>
       </c>
       <c r="J97" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O97" t="s">
         <v>127</v>
@@ -20390,16 +20386,16 @@
     </row>
     <row r="98" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D98" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E98" t="s">
         <v>54</v>
@@ -20417,19 +20413,19 @@
         <v>58</v>
       </c>
       <c r="J98" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O98" t="s">
         <v>127</v>
@@ -20508,16 +20504,16 @@
     </row>
     <row r="99" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D99" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E99" t="s">
         <v>54</v>
@@ -20535,19 +20531,19 @@
         <v>58</v>
       </c>
       <c r="J99" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O99" t="s">
         <v>127</v>
@@ -20619,16 +20615,16 @@
     </row>
     <row r="100" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D100" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E100" t="s">
         <v>54</v>
@@ -20646,19 +20642,19 @@
         <v>58</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O100" t="s">
         <v>127</v>
@@ -20734,16 +20730,16 @@
     </row>
     <row r="101" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D101" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E101" t="s">
         <v>54</v>
@@ -20761,19 +20757,19 @@
         <v>58</v>
       </c>
       <c r="J101" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="M101" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O101" t="s">
         <v>127</v>
@@ -20851,16 +20847,16 @@
     </row>
     <row r="102" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D102" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E102" t="s">
         <v>54</v>
@@ -20884,13 +20880,13 @@
         <v>62</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O102" t="s">
         <v>127</v>
@@ -20962,16 +20958,16 @@
     </row>
     <row r="103" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D103" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E103" t="s">
         <v>54</v>
@@ -20989,19 +20985,19 @@
         <v>58</v>
       </c>
       <c r="J103" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L103" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O103" t="s">
         <v>127</v>
@@ -21075,16 +21071,16 @@
     </row>
     <row r="104" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D104" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E104" t="s">
         <v>54</v>
@@ -21102,19 +21098,19 @@
         <v>58</v>
       </c>
       <c r="J104" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L104" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="M104" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O104" t="s">
         <v>127</v>
@@ -21186,16 +21182,16 @@
     </row>
     <row r="105" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D105" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E105" t="s">
         <v>54</v>
@@ -21213,13 +21209,13 @@
         <v>58</v>
       </c>
       <c r="J105" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L105" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>62</v>
@@ -21301,16 +21297,16 @@
     </row>
     <row r="106" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D106" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E106" t="s">
         <v>54</v>
@@ -21328,13 +21324,13 @@
         <v>58</v>
       </c>
       <c r="J106" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L106" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>62</v>
@@ -21416,16 +21412,16 @@
     </row>
     <row r="107" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D107" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E107" t="s">
         <v>54</v>
@@ -21443,19 +21439,19 @@
         <v>58</v>
       </c>
       <c r="J107" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L107" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="K107" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="M107" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O107" t="s">
         <v>127</v>
@@ -21535,16 +21531,16 @@
     </row>
     <row r="108" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="D108" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E108" t="s">
         <v>54</v>
@@ -21562,13 +21558,13 @@
         <v>58</v>
       </c>
       <c r="J108" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L108" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>62</v>
@@ -21650,16 +21646,16 @@
     </row>
     <row r="109" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D109" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E109" t="s">
         <v>54</v>
@@ -21677,13 +21673,13 @@
         <v>58</v>
       </c>
       <c r="J109" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L109" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>62</v>
@@ -21766,16 +21762,16 @@
     </row>
     <row r="110" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D110" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E110" t="s">
         <v>54</v>
@@ -21793,13 +21789,13 @@
         <v>58</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>62</v>
@@ -21880,16 +21876,16 @@
     </row>
     <row r="111" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D111" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E111" t="s">
         <v>54</v>
@@ -21907,13 +21903,13 @@
         <v>58</v>
       </c>
       <c r="J111" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L111" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>62</v>
@@ -21997,16 +21993,16 @@
     </row>
     <row r="112" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D112" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E112" t="s">
         <v>54</v>
@@ -22024,19 +22020,19 @@
         <v>58</v>
       </c>
       <c r="J112" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L112" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="M112" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O112" t="s">
         <v>127</v>
@@ -22114,16 +22110,16 @@
     </row>
     <row r="113" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E113" t="s">
         <v>54</v>
@@ -22141,19 +22137,19 @@
         <v>58</v>
       </c>
       <c r="J113" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L113" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="M113" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O113" t="s">
         <v>127</v>
@@ -22228,16 +22224,16 @@
     </row>
     <row r="114" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D114" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E114" t="s">
         <v>54</v>
@@ -22255,13 +22251,13 @@
         <v>58</v>
       </c>
       <c r="J114" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L114" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>62</v>
@@ -22339,16 +22335,16 @@
     </row>
     <row r="115" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D115" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E115" t="s">
         <v>54</v>
@@ -22366,13 +22362,13 @@
         <v>58</v>
       </c>
       <c r="J115" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L115" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>62</v>
@@ -22451,16 +22447,16 @@
     </row>
     <row r="116" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D116" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E116" t="s">
         <v>54</v>
@@ -22478,13 +22474,13 @@
         <v>58</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>62</v>
@@ -22557,16 +22553,16 @@
     </row>
     <row r="117" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D117" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E117" t="s">
         <v>54</v>
@@ -22584,19 +22580,19 @@
         <v>58</v>
       </c>
       <c r="J117" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L117" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>698</v>
-      </c>
       <c r="M117" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O117" t="s">
         <v>127</v>
@@ -22663,16 +22659,16 @@
     </row>
     <row r="118" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D118" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E118" t="s">
         <v>54</v>
@@ -22690,13 +22686,13 @@
         <v>58</v>
       </c>
       <c r="J118" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L118" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>62</v>
@@ -22766,16 +22762,16 @@
     </row>
     <row r="119" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D119" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E119" t="s">
         <v>54</v>
@@ -22793,13 +22789,13 @@
         <v>58</v>
       </c>
       <c r="J119" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L119" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>62</v>

--- a/notebooks/POGZ/input/POGZ_WHSUS_individuals.xlsx
+++ b/notebooks/POGZ/input/POGZ_WHSUS_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/POGZ/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D81F65-0866-F248-87DC-970221533546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4EE02-60D7-5C4D-9334-CB306E23B270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="500" windowWidth="43560" windowHeight="21660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1811,9 +1811,6 @@
     <t>P11M</t>
   </si>
   <si>
-    <t>P1Y2N</t>
-  </si>
-  <si>
     <t>P28Y</t>
   </si>
   <si>
@@ -2160,6 +2157,9 @@
   </si>
   <si>
     <t>c.2433-1G&gt;A</t>
+  </si>
+  <si>
+    <t>P1Y2M</t>
   </si>
 </sst>
 </file>
@@ -2554,8 +2554,8 @@
   <dimension ref="A1:DK123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14876,7 +14876,7 @@
     </row>
     <row r="52" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>417</v>
@@ -14903,13 +14903,13 @@
         <v>58</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>62</v>
@@ -15008,7 +15008,7 @@
     </row>
     <row r="53" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>417</v>
@@ -15035,13 +15035,13 @@
         <v>58</v>
       </c>
       <c r="J53" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>62</v>
@@ -15132,7 +15132,7 @@
     </row>
     <row r="54" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>417</v>
@@ -15159,13 +15159,13 @@
         <v>58</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>62</v>
@@ -15258,7 +15258,7 @@
     </row>
     <row r="55" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>417</v>
@@ -15285,13 +15285,13 @@
         <v>58</v>
       </c>
       <c r="J55" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>62</v>
@@ -15382,7 +15382,7 @@
     </row>
     <row r="56" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>417</v>
@@ -15409,13 +15409,13 @@
         <v>58</v>
       </c>
       <c r="J56" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>62</v>
@@ -15508,7 +15508,7 @@
     </row>
     <row r="57" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>417</v>
@@ -15535,7 +15535,7 @@
         <v>58</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>62</v>
@@ -15636,7 +15636,7 @@
     </row>
     <row r="58" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>417</v>
@@ -15663,13 +15663,13 @@
         <v>58</v>
       </c>
       <c r="J58" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>62</v>
@@ -15762,7 +15762,7 @@
     </row>
     <row r="59" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>418</v>
@@ -15789,13 +15789,13 @@
         <v>58</v>
       </c>
       <c r="J59" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>62</v>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="60" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>420</v>
@@ -15907,13 +15907,13 @@
         <v>58</v>
       </c>
       <c r="J60" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>62</v>
@@ -16006,7 +16006,7 @@
     </row>
     <row r="61" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>420</v>
@@ -16033,13 +16033,13 @@
         <v>58</v>
       </c>
       <c r="J61" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>62</v>
@@ -16132,7 +16132,7 @@
     </row>
     <row r="62" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>420</v>
@@ -16159,13 +16159,13 @@
         <v>58</v>
       </c>
       <c r="J62" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>62</v>
@@ -16256,7 +16256,7 @@
     </row>
     <row r="63" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>420</v>
@@ -16283,13 +16283,13 @@
         <v>58</v>
       </c>
       <c r="J63" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>62</v>
@@ -16376,7 +16376,7 @@
     </row>
     <row r="64" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>420</v>
@@ -16403,13 +16403,13 @@
         <v>58</v>
       </c>
       <c r="J64" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>62</v>
@@ -16500,7 +16500,7 @@
     </row>
     <row r="65" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>420</v>
@@ -16527,7 +16527,7 @@
         <v>58</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>62</v>
@@ -16624,7 +16624,7 @@
     </row>
     <row r="66" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>420</v>
@@ -16651,13 +16651,13 @@
         <v>58</v>
       </c>
       <c r="J66" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>62</v>
@@ -16744,7 +16744,7 @@
     </row>
     <row r="67" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>420</v>
@@ -16771,13 +16771,13 @@
         <v>58</v>
       </c>
       <c r="J67" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>62</v>
@@ -16866,7 +16866,7 @@
     </row>
     <row r="68" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>420</v>
@@ -16893,13 +16893,13 @@
         <v>58</v>
       </c>
       <c r="J68" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>62</v>
@@ -16992,7 +16992,7 @@
     </row>
     <row r="69" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>420</v>
@@ -17019,13 +17019,13 @@
         <v>58</v>
       </c>
       <c r="J69" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>62</v>
@@ -17114,7 +17114,7 @@
     </row>
     <row r="70" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>420</v>
@@ -17141,13 +17141,13 @@
         <v>58</v>
       </c>
       <c r="J70" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>637</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>62</v>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="71" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>420</v>
@@ -17266,13 +17266,13 @@
         <v>58</v>
       </c>
       <c r="J71" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>62</v>
@@ -17358,7 +17358,7 @@
     </row>
     <row r="72" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>420</v>
@@ -17385,7 +17385,7 @@
         <v>58</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>62</v>
@@ -17481,7 +17481,7 @@
     </row>
     <row r="73" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>420</v>
@@ -17596,7 +17596,7 @@
     </row>
     <row r="74" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>420</v>
@@ -17623,13 +17623,13 @@
         <v>58</v>
       </c>
       <c r="J74" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>62</v>
@@ -17713,7 +17713,7 @@
     </row>
     <row r="75" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>420</v>
@@ -17740,13 +17740,13 @@
         <v>58</v>
       </c>
       <c r="J75" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>62</v>
@@ -17834,7 +17834,7 @@
     </row>
     <row r="76" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>420</v>
@@ -17861,13 +17861,13 @@
         <v>58</v>
       </c>
       <c r="J76" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>62</v>
@@ -17948,7 +17948,7 @@
     </row>
     <row r="77" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>420</v>
@@ -17975,13 +17975,13 @@
         <v>58</v>
       </c>
       <c r="J77" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>62</v>
@@ -18066,7 +18066,7 @@
     </row>
     <row r="78" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>420</v>
@@ -18093,13 +18093,13 @@
         <v>58</v>
       </c>
       <c r="J78" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>62</v>
@@ -18180,7 +18180,7 @@
     </row>
     <row r="79" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>420</v>
@@ -18207,13 +18207,13 @@
         <v>58</v>
       </c>
       <c r="J79" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>62</v>
@@ -18302,7 +18302,7 @@
     </row>
     <row r="80" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>420</v>
@@ -18329,19 +18329,19 @@
         <v>58</v>
       </c>
       <c r="J80" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="M80" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>592</v>
+        <v>708</v>
       </c>
       <c r="O80" t="s">
         <v>127</v>
@@ -18420,7 +18420,7 @@
     </row>
     <row r="81" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>420</v>
@@ -18447,13 +18447,13 @@
         <v>58</v>
       </c>
       <c r="J81" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>62</v>
@@ -18534,7 +18534,7 @@
     </row>
     <row r="82" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>420</v>
@@ -18561,13 +18561,13 @@
         <v>58</v>
       </c>
       <c r="J82" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>62</v>
@@ -18648,7 +18648,7 @@
     </row>
     <row r="83" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>420</v>
@@ -18675,13 +18675,13 @@
         <v>58</v>
       </c>
       <c r="J83" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>62</v>
@@ -18768,7 +18768,7 @@
     </row>
     <row r="84" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>420</v>
@@ -18795,13 +18795,13 @@
         <v>58</v>
       </c>
       <c r="J84" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>62</v>
@@ -18888,7 +18888,7 @@
     </row>
     <row r="85" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>446</v>
@@ -18915,13 +18915,13 @@
         <v>58</v>
       </c>
       <c r="J85" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L85" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>62</v>
@@ -19004,7 +19004,7 @@
     </row>
     <row r="86" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>446</v>
@@ -19031,19 +19031,19 @@
         <v>58</v>
       </c>
       <c r="J86" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="M86" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O86" t="s">
         <v>127</v>
@@ -19116,7 +19116,7 @@
     </row>
     <row r="87" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>446</v>
@@ -19143,13 +19143,13 @@
         <v>58</v>
       </c>
       <c r="J87" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>186</v>
@@ -19234,7 +19234,7 @@
     </row>
     <row r="88" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>446</v>
@@ -19261,19 +19261,19 @@
         <v>58</v>
       </c>
       <c r="J88" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>666</v>
-      </c>
       <c r="M88" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O88" t="s">
         <v>127</v>
@@ -19354,7 +19354,7 @@
     </row>
     <row r="89" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>446</v>
@@ -19381,13 +19381,13 @@
         <v>58</v>
       </c>
       <c r="J89" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L89" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>186</v>
@@ -19468,7 +19468,7 @@
     </row>
     <row r="90" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>446</v>
@@ -19495,19 +19495,19 @@
         <v>58</v>
       </c>
       <c r="J90" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O90" t="s">
         <v>127</v>
@@ -19586,7 +19586,7 @@
     </row>
     <row r="91" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>446</v>
@@ -19613,19 +19613,19 @@
         <v>58</v>
       </c>
       <c r="J91" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O91" t="s">
         <v>127</v>
@@ -19704,7 +19704,7 @@
     </row>
     <row r="92" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>446</v>
@@ -19731,13 +19731,13 @@
         <v>58</v>
       </c>
       <c r="J92" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>62</v>
@@ -19816,7 +19816,7 @@
     </row>
     <row r="93" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>446</v>
@@ -19843,7 +19843,7 @@
         <v>58</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>62</v>
@@ -19928,7 +19928,7 @@
     </row>
     <row r="94" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>446</v>
@@ -19955,7 +19955,7 @@
         <v>58</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>62</v>
@@ -20044,7 +20044,7 @@
     </row>
     <row r="95" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>446</v>
@@ -20071,7 +20071,7 @@
         <v>58</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>62</v>
@@ -20156,7 +20156,7 @@
     </row>
     <row r="96" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>446</v>
@@ -20183,7 +20183,7 @@
         <v>58</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>62</v>
@@ -20270,7 +20270,7 @@
     </row>
     <row r="97" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>446</v>
@@ -20297,19 +20297,19 @@
         <v>58</v>
       </c>
       <c r="J97" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O97" t="s">
         <v>127</v>
@@ -20386,7 +20386,7 @@
     </row>
     <row r="98" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>446</v>
@@ -20504,7 +20504,7 @@
     </row>
     <row r="99" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>446</v>
@@ -20531,19 +20531,19 @@
         <v>58</v>
       </c>
       <c r="J99" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O99" t="s">
         <v>127</v>
@@ -20615,7 +20615,7 @@
     </row>
     <row r="100" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>446</v>
@@ -20642,19 +20642,19 @@
         <v>58</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O100" t="s">
         <v>127</v>
@@ -20730,7 +20730,7 @@
     </row>
     <row r="101" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>446</v>
@@ -20757,19 +20757,19 @@
         <v>58</v>
       </c>
       <c r="J101" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>681</v>
-      </c>
       <c r="M101" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O101" t="s">
         <v>127</v>
@@ -20847,7 +20847,7 @@
     </row>
     <row r="102" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>446</v>
@@ -20958,7 +20958,7 @@
     </row>
     <row r="103" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>446</v>
@@ -20985,19 +20985,19 @@
         <v>58</v>
       </c>
       <c r="J103" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L103" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O103" t="s">
         <v>127</v>
@@ -21071,7 +21071,7 @@
     </row>
     <row r="104" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>446</v>
@@ -21098,13 +21098,13 @@
         <v>58</v>
       </c>
       <c r="J104" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L104" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>62</v>
@@ -21182,7 +21182,7 @@
     </row>
     <row r="105" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>446</v>
@@ -21209,13 +21209,13 @@
         <v>58</v>
       </c>
       <c r="J105" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L105" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>62</v>
@@ -21297,7 +21297,7 @@
     </row>
     <row r="106" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>446</v>
@@ -21324,13 +21324,13 @@
         <v>58</v>
       </c>
       <c r="J106" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L106" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>62</v>
@@ -21412,7 +21412,7 @@
     </row>
     <row r="107" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>469</v>
@@ -21439,19 +21439,19 @@
         <v>58</v>
       </c>
       <c r="J107" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L107" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="K107" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="M107" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O107" t="s">
         <v>127</v>
@@ -21531,7 +21531,7 @@
     </row>
     <row r="108" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>470</v>
@@ -21558,13 +21558,13 @@
         <v>58</v>
       </c>
       <c r="J108" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L108" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>62</v>
@@ -21646,7 +21646,7 @@
     </row>
     <row r="109" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>470</v>
@@ -21673,13 +21673,13 @@
         <v>58</v>
       </c>
       <c r="J109" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L109" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>62</v>
@@ -21762,7 +21762,7 @@
     </row>
     <row r="110" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>470</v>
@@ -21789,13 +21789,13 @@
         <v>58</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>62</v>
@@ -21876,7 +21876,7 @@
     </row>
     <row r="111" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>470</v>
@@ -21903,13 +21903,13 @@
         <v>58</v>
       </c>
       <c r="J111" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L111" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>62</v>
@@ -21993,7 +21993,7 @@
     </row>
     <row r="112" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>470</v>
@@ -22020,19 +22020,19 @@
         <v>58</v>
       </c>
       <c r="J112" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L112" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>692</v>
-      </c>
       <c r="M112" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O112" t="s">
         <v>127</v>
@@ -22110,7 +22110,7 @@
     </row>
     <row r="113" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>470</v>
@@ -22137,19 +22137,19 @@
         <v>58</v>
       </c>
       <c r="J113" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L113" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>692</v>
-      </c>
       <c r="M113" s="1" t="s">
         <v>62</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O113" t="s">
         <v>127</v>
@@ -22224,7 +22224,7 @@
     </row>
     <row r="114" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>470</v>
@@ -22335,7 +22335,7 @@
     </row>
     <row r="115" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>470</v>
@@ -22362,13 +22362,13 @@
         <v>58</v>
       </c>
       <c r="J115" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L115" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>62</v>
@@ -22447,7 +22447,7 @@
     </row>
     <row r="116" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>470</v>
@@ -22474,7 +22474,7 @@
         <v>58</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>62</v>
@@ -22553,7 +22553,7 @@
     </row>
     <row r="117" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>470</v>
@@ -22580,13 +22580,13 @@
         <v>58</v>
       </c>
       <c r="J117" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L117" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>62</v>
@@ -22659,7 +22659,7 @@
     </row>
     <row r="118" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>470</v>
@@ -22686,13 +22686,13 @@
         <v>58</v>
       </c>
       <c r="J118" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L118" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>62</v>
@@ -22762,7 +22762,7 @@
     </row>
     <row r="119" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>470</v>
@@ -22789,13 +22789,13 @@
         <v>58</v>
       </c>
       <c r="J119" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L119" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>62</v>
